--- a/QuickCreateBO/example.xlsx
+++ b/QuickCreateBO/example.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17700" windowHeight="4320"/>
   </bookViews>
   <sheets>
     <sheet name="仓储管理" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,8 @@
   <definedNames>
     <definedName name="_Toc31506" localSheetId="0">仓储管理!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
@@ -673,10 +674,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF002060"/>
+  </sheetPr>
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD9"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="D90" sqref="D90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1044,6 +1048,14 @@
     <row r="21" spans="1:9" ht="14.25" thickTop="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="I2:I3"/>
     <mergeCell ref="A2:A3"/>
@@ -1052,14 +1064,6 @@
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="F2:F3"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
